--- a/问题总结.xlsx
+++ b/问题总结.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79986\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiang\Desktop\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C0C644-4AF1-4013-80EB-B1F4333A7486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EDEFDB-AEF4-4D5E-A36A-AA447E56C9CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="链接" sheetId="1" r:id="rId1"/>
@@ -408,11 +408,6 @@
   </si>
   <si>
     <t>模型训练为什么要引入偏差(bias)和方差(variance)？</t>
-  </si>
-  <si>
-    <t>为什么：为了解释学习算法的泛化性能，泛化误差可分解为偏差、方差和噪声之和；
-是什么：其中偏差为期望输出与真实标记的差别，刻画了学习算法本身的拟合能力；方差为使用样本数相同的不同训练集产生的方差，刻画了数据扰动所造成的影响；而噪声为数据中的标签与真实标签的差别，刻画了学习问题本身的难度。
-偏差-方差窘境，与过拟合关系：一般来说，偏差与方差是有冲突的，当训练不足时，学习器拟合能力不强，训练数据的扰动不足以使学习器差生变化，此时泛化误差中偏差占主导 ；随着训练程度加深，模型拟合能力加强，数据扰动被学习器学到，此时方差占主导。在训练结束后，若训练数据自身的、非全局的特性被学习器学到了，则将发生过拟合。</t>
   </si>
   <si>
     <t>朴素贝叶斯/EM/CRF/最大熵模型/马尔科夫随机场/混合高斯模型</t>
@@ -890,12 +885,18 @@
     <t>答案</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>为什么：为了解释学习算法的泛化性能，泛化误差可分解为偏差、方差和噪声之和；
+是什么：其中偏差为期望输出与真实标记的差别，刻画了学习算法本身的拟合能力；方差为使用样本数相同的不同训练集产生的方差，刻画了数据扰动所造成的影响；而噪声为数据中的标签与真实标签的差别，刻画了学习问题本身的难度。
+偏差-方差窘境，与过拟合关系：一般来说，偏差与方差是有冲突的，当训练不足时，学习器拟合能力不强，训练数据的扰动不足以使学习器差生变化，此时泛化误差中偏差占主导 ；随着训练程度加深，模型拟合能力加强，数据扰动被学习器学到，此时方差占主导。在训练结束后，若训练数据自身的、非全局的特性被学习器学到了，则将发生过拟合。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,14 +953,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF24292E"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
@@ -993,7 +1009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1018,20 +1034,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1667,520 +1684,521 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F48A88-4381-4364-B6BF-6A5B4BCEB5F3}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="34.75" customWidth="1"/>
-    <col min="2" max="2" width="72.625" customWidth="1"/>
+    <col min="1" max="1" width="34.75" style="10" customWidth="1"/>
+    <col min="2" max="2" width="72.625" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5">
+    <row r="1" spans="1:2" ht="20.25">
       <c r="A1" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="71.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20.25">
       <c r="A2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.5">
+    <row r="3" spans="1:2" ht="243">
       <c r="A3" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="384.75">
+      <c r="A4" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="182.25">
+      <c r="A5" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="409.5">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="81">
+      <c r="A6" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="379.5">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="141.75">
+      <c r="A7" s="9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="409.5">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="81">
+      <c r="A8" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="363">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="9" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="81">
+      <c r="A9" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="330">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="9" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="141.75">
+      <c r="A10" s="9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="409.5">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="9" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="20.25">
+      <c r="A11" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="66">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="9" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="141.75">
+      <c r="A12" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="409.5">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="9" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="162">
+      <c r="A13" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="409.5">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="101.25">
+      <c r="A14" s="9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="409.5">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="9" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="20.25">
+      <c r="A15" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="33">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" ht="101.25">
+      <c r="A16" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" ht="409.5">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="9" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="20.25">
+      <c r="A17" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="49.5">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="11" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="81">
+      <c r="A18" s="9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="330">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="12" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="101.25">
+      <c r="A19" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="363">
-      <c r="A19" s="9" t="s">
+      <c r="B19" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="12" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="40.5">
+      <c r="A20" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="66">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="11" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="60.75">
+      <c r="A21" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="264">
-      <c r="A21" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="9" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="40.5">
+      <c r="A22" s="9" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="132">
-      <c r="A22" s="9" t="s">
+      <c r="B22" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="12" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="60.75">
+      <c r="A23" s="9" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="247.5">
-      <c r="A23" s="9" t="s">
+      <c r="B23" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="12" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="20.25">
+      <c r="A24" s="9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="49.5">
-      <c r="A24" s="9" t="s">
+      <c r="B24" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="11" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="40.5">
+      <c r="A25" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="33">
-      <c r="A25" s="9" t="s">
+      <c r="B25" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="12" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="121.5">
+      <c r="A26" s="9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="66">
-      <c r="A26" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="9" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="182.25">
+      <c r="A27" s="9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="409.5">
-      <c r="A27" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="9" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="202.5">
+      <c r="A28" s="9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="409.5">
-      <c r="A28" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="9" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="40.5">
+      <c r="A29" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="99">
-      <c r="A29" s="9" t="s">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:2" ht="40.5">
+      <c r="A30" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:2" ht="148.5">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="9" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="101.25">
+      <c r="A31" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="409.5">
-      <c r="A31" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="9" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="40.5">
+      <c r="A32" s="9" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="214.5">
-      <c r="A32" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="9" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="20.25">
+      <c r="A33" s="9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="66">
-      <c r="A33" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B33" s="9" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="40.5">
+      <c r="A34" s="9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="66">
-      <c r="A34" s="9" t="s">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:2" ht="121.5">
+      <c r="A35" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" spans="1:2" ht="409.5">
-      <c r="A35" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="9" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="20.25">
+      <c r="A36" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="82.5">
-      <c r="A36" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="9" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="121.5">
+      <c r="A37" s="9" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="409.5">
-      <c r="A37" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B37" s="9" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="141.75">
+      <c r="A38" s="9" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="409.5">
-      <c r="A38" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B38" s="9" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="141.75">
+      <c r="A39" s="9" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="409.5">
-      <c r="A39" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B39" s="9" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="81">
+      <c r="A40" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="313.5">
-      <c r="A40" s="9" t="s">
+      <c r="B40" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B40" s="9" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="20.25">
+      <c r="A41" s="9" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="33">
-      <c r="A41" s="9" t="s">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:2" ht="20.25">
+      <c r="A42" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="1:2" ht="49.5">
-      <c r="A42" s="9" t="s">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:2" ht="40.5">
+      <c r="A43" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="1:2" ht="99">
-      <c r="A43" s="9" t="s">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:2" ht="40.5">
+      <c r="A44" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="1:2" ht="132">
-      <c r="A44" s="9" t="s">
+      <c r="B44" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B44" s="9" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="60.75">
+      <c r="A45" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="247.5">
-      <c r="A45" s="9" t="s">
+      <c r="B45" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B45" s="9" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="81">
+      <c r="A46" s="14" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="280.5">
-      <c r="A46" s="14" t="s">
+      <c r="B46" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="409.5">
+    </row>
+    <row r="47" spans="1:2" ht="162">
       <c r="A47" s="14"/>
       <c r="B47" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="101.25">
+      <c r="A48" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="409.5">
-      <c r="A48" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="9" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="40.5">
+      <c r="A49" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="165">
-      <c r="A49" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B49" s="9" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="303.75">
+      <c r="A50" s="9" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="409.5">
-      <c r="A50" s="9" t="s">
+      <c r="B50" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="409.5">
       <c r="A51" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="9" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="182.25">
+      <c r="A52" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="409.5">
-      <c r="A52" s="9" t="s">
+      <c r="B52" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="409.5">
       <c r="A53" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="409.5">
       <c r="A54" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="9" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="101.25">
+      <c r="A55" s="9" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="346.5">
-      <c r="A55" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B55" s="9" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="20.25">
+      <c r="A56" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="49.5">
-      <c r="A56" s="9" t="s">
+      <c r="B56" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B56" s="9" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="182.25">
+      <c r="A57" s="9" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="409.5">
-      <c r="A57" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B57" s="9" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="60.75">
+      <c r="A58" s="9" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="231">
-      <c r="A58" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="409.5">
       <c r="A59" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B59" s="9" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="162">
+      <c r="A60" s="15" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="409.5">
-      <c r="A60" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="409.5">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B61" s="9" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="216">
+      <c r="A62" s="9" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="409.5">
-      <c r="A62" s="9" t="s">
+      <c r="B62" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B62" s="10" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="20.25">
+      <c r="A63" s="9" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="71.25">
-      <c r="A63" s="9" t="s">
+      <c r="B63" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B63" s="10" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="40.5">
+      <c r="A64" s="9" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="99">
-      <c r="A64" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B64" s="9" t="s">
+    </row>
+    <row r="65" spans="1:2" ht="162">
+      <c r="A65" s="9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="409.5">
-      <c r="A65" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>236</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
